--- a/top_articles.xlsx
+++ b/top_articles.xlsx
@@ -705,7 +705,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>50, 61, 23</t>
+          <t>50, 61, 55</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2, AVII, AVI, 8</t>
+          <t>2, AVI, 8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>63, 10, 55, 8</t>
+          <t>10, 70, 46, 55</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>17, 68, 5, 14</t>
+          <t>68, 5, 14</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AVI, AVII</t>
+          <t>AII/A, AXIII, AVI, AVII</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4, AIII/6, AIII/8</t>
+          <t>AV, AIII/6, AIII/8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AVIII, AIII</t>
+          <t>AVIII, AIII, 24</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>AIII/4, AIII/3, 7</t>
+          <t>AIII/4, AIII/6, AIII/3, 7</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>AI, AII, 4</t>
+          <t>AI, AII</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>29, 61, 55, 72</t>
+          <t>28, 29, 61, 72</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>57, 3, 51, 24</t>
+          <t>57, 68, 23, 24</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -924,22 +924,22 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2, 5, 53, AIV</t>
+          <t>AV, 2, 21, 5</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>59, 12, 13, 5</t>
+          <t>25, AIII/App2, 12, 13</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>11, 4, 6</t>
+          <t>AIII, 11, 4, 6</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>74, 115, 62</t>
+          <t>74, 115, 43, 62</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9, AI/PO, 20, 7</t>
+          <t>AI/PO, 20, AIII/3, 7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>66, 10, 55, 71</t>
+          <t>10, 71, 55, 72</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>AIII, 27, 28</t>
+          <t>AIII, 27, 8</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>11, 6</t>
+          <t>11, 4, 6</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>41, 9, 33, 28</t>
+          <t>9, 28, 41, 33</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2, 22, 55, 8</t>
+          <t>55, 50, 22, 2</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2, 11, 6</t>
+          <t>9, 2, 11</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>9, 33, AIII/3, 7</t>
+          <t>AIII/4, 33, AIII/3, 7</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>10, 13, 55, 56</t>
+          <t>10, 28, 13, 55</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>35, 12, AII/II, 24</t>
+          <t>35, AII/II, AII/III, 24</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18, 53, 26, 42</t>
+          <t>18, 53, 42</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>73, 90, 108, 80</t>
+          <t>73, 90, 92, 108</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>52, AX</t>
+          <t>AXI/A, 52, AX</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>26, 19, 27</t>
+          <t>26, 19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>26, 14, AIII/1, AIII/2</t>
+          <t>AIII/11, 14, AIII/1, AIII/2</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>AII, 11, 13, 15</t>
+          <t>AII, 11, 13</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>AIII, 17, 15</t>
+          <t>AIII, 15, AII/V</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>10, 68, 45, 15</t>
+          <t>115, 68, 45, 15</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>9, AIII/App2, AIV</t>
+          <t>AIII/App2, AIV</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>68, 62, 15</t>
+          <t>68, 76, 62</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>49, 11, 33, 8</t>
+          <t>33, 11, 49, 8</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>41, 11, 38, 63</t>
+          <t>11, 45, 38, 63</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2782,102 +2782,102 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>33, 34, AIV/A, 6</t>
+          <t>AIV/A, AV/B, 6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>26, AIV, 30, 31</t>
+          <t>26, 36, AIV</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>33, 34, 30, 7</t>
+          <t>30, 7, 15</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28, 27, AIV/A, 8</t>
+          <t>AII/A, AIV/A, AXIII, 8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25, 13, 6, 24</t>
+          <t>21, AXI, 13, 6</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10, 5, 30</t>
+          <t>10, AVI, 5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>28, 29, 6, 8</t>
+          <t>AIV, AV, 6, 8</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11, 29, 13, 30</t>
+          <t>26, 11, 13, AIII</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>27, 28, 8, AV</t>
+          <t>8, 24, AV</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>9, 26, 27, 7</t>
+          <t>9, AIII/1, 7, 23</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>92, 29, AVI/A, 31</t>
+          <t>92, AVI/A, 31</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>28, 26, 52, 87</t>
+          <t>28, 52, AVI/A, 87</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>AII, 4, 15</t>
+          <t>AII, 4, 7</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>10, 43, 44, 72</t>
+          <t>10, 29, AV, 72</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>9, 38, 39, 24</t>
+          <t>9, 25, 24</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>AIV, 35, 19</t>
+          <t>17, AIII, 35, 19</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>49, 47, 48</t>
+          <t>AV, 47, 48</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>25, 49, 12</t>
+          <t>25, 26, 12</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>11, AIII, 6, 16</t>
+          <t>4, 11, AIII, 6</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>74, 45, 72</t>
+          <t>74, 45, 134, 56</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>61, 62, 85</t>
+          <t>43, 85, 62</t>
         </is>
       </c>
     </row>
